--- a/data/trans_camb/P2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,74</t>
+          <t>-25,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,83</t>
+          <t>-25,64</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,72</t>
+          <t>-29,32</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,92</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,05</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
           <t>-12,21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-12,06</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-13,66</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-41,69; -0,08</t>
+          <t>-61,92; -2,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-33,45; -0,03</t>
+          <t>-61,49; -3,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-40,37; -0,76</t>
+          <t>-67,03; -3,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 4,87</t>
+          <t>-7,96; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,47; 3,22</t>
+          <t>-7,94; 7,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-44,21; 4,41</t>
+          <t>-7,21; 8,2</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-24,83; -0,1</t>
+          <t>-6,23; 8,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,38; 0,03</t>
+          <t>1,59; 13,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,02; -0,19</t>
+          <t>-38,37; -1,1</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-37,6; -0,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-43,12; -0,71</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-0,36; 6,88</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,65%</t>
+          <t>-25,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>-25,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,51%</t>
+          <t>-29,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>-1,31%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,36%</t>
+          <t>-0,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-11,76%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-8,9%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-9,17%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,96%</t>
+          <t>-12,57%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-12,41%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-14,06%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-43,9; -0,14</t>
+          <t>-61,92; -2,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,06; -0,09</t>
+          <t>-61,49; -3,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,39; -0,92</t>
+          <t>-67,03; -3,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,6; 5,3</t>
+          <t>-7,96; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,47; 3,33</t>
+          <t>-8,19; 8,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,52; 4,75</t>
+          <t>-7,45; 9,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,29; -0,26</t>
+          <t>-6,33; 9,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-25,81; 0,07</t>
+          <t>1,61; 15,78</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-35,29; -0,22</t>
+          <t>-39,96; -1,18</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-39,32; -0,98</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-45,11; -0,82</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 7,42</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>-5,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,29</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-3,41</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,39</t>
+          <t>-1,97</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-3,78</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,45</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 2,87</t>
+          <t>-8,0; 1,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 2,65</t>
+          <t>-8,81; 0,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 0,73</t>
+          <t>-12,35; -0,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 4,49</t>
+          <t>-7,4; 1,89</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 1,54</t>
+          <t>-5,95; 3,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,97; 1,16</t>
+          <t>-9,52; 1,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 2,73</t>
+          <t>-8,88; 1,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,42; 1,46</t>
+          <t>-4,29; 4,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 0,17</t>
+          <t>-5,17; 0,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; -0,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; -1,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 1,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-3,04%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,5%</t>
+          <t>-3,71%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,84%</t>
+          <t>-5,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-2,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,14%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,55%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,43%</t>
+          <t>-3,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,24%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-3,55%</t>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-3,92%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-4,61%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-0,88%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,02</t>
+          <t>-8,23; 1,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,81</t>
+          <t>-9,17; 0,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,3; 0,76</t>
+          <t>-12,7; -0,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 4,92</t>
+          <t>-7,53; 1,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 1,55</t>
+          <t>-6,09; 3,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 1,23</t>
+          <t>-9,77; 1,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 2,93</t>
+          <t>-9,18; 1,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,54</t>
+          <t>-4,44; 4,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 0,17</t>
+          <t>-5,35; 1,0</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; -0,59</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-8,91; -1,08</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 2,08</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,98</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,31</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,19</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,27</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-2,06</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 5,21</t>
+          <t>-6,07; 5,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 5,35</t>
+          <t>-9,28; 3,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,76</t>
+          <t>-8,19; 3,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 2,77</t>
+          <t>-4,36; 5,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 2,83</t>
+          <t>-3,88; 3,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 1,55</t>
+          <t>-4,01; 3,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 2,84</t>
+          <t>-7,15; 2,17</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 2,96</t>
+          <t>-7,16; 2,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 2,16</t>
+          <t>-3,35; 3,13</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,54; 2,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 1,66</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 2,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>-0,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>-2,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-1,02%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>-0,17%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,31%</t>
+          <t>-0,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-2,27%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-2,03%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,45%</t>
+          <t>-0,11%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-1,33%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 5,91</t>
+          <t>-6,32; 5,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 6,17</t>
+          <t>-9,7; 3,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 6,39</t>
+          <t>-8,43; 3,89</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 2,91</t>
+          <t>-4,45; 6,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 2,98</t>
+          <t>-3,97; 4,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 1,48</t>
+          <t>-4,06; 3,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 3,05</t>
+          <t>-7,27; 2,27</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,2</t>
+          <t>-7,29; 2,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,32</t>
+          <t>-3,48; 3,37</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 2,29</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-5,86; 1,77</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 2,85</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,23</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,84; 0,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 0,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,01; -0,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,04; -1,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,63; -0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,36; -1,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-1,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-5,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,73; 1,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-9,79; 0,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 2,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; -0,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-16,1; -1,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-5,9; -0,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-9,83; -1,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-5,14</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-6,25</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-7,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-3,94</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-4,88</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-14,93; -0,8</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-15,38; -1,92</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-18,49; -2,56</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 2,2</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-3,34; 2,46</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 1,41</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-5,68; 1,0</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,33; 3,21</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,6; -0,31</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-8,29; -1,28</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-10,75; -2,07</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 1,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-6,44%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-7,84%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-0,77%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-0,57%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,94%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-2,43%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0,31%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-2,77%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-5,07%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-0,19%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-15,23; -0,85</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,74; -2,0</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-18,88; -2,64</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-3,86; 2,28</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 2,6</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 1,49</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-5,92; 1,06</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 3,42</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-7,96; -0,34</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-8,53; -1,33</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-11,14; -2,19</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-2,39; 1,84</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
